--- a/借书.xlsx
+++ b/借书.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,34 @@
   </si>
   <si>
     <t>收藏时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员删除同时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书本删除同时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认归还书时，己归还书本数量还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货后扣总借书次数，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单借书时判断是否超出单次最大借书数量,书本库存够借不,同时扣除该书库存量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,14 +379,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -726,43 +751,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N22"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="12.25" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="58.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="12.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
     <row r="2" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>29</v>
@@ -770,7 +781,6 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
@@ -780,17 +790,12 @@
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="1" t="s">
@@ -811,17 +816,12 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -842,17 +842,12 @@
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="1" t="s">
@@ -873,17 +868,12 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1" t="s">
@@ -895,24 +885,18 @@
       <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="1" t="s">
@@ -924,61 +908,46 @@
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
@@ -992,25 +961,17 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1018,206 +979,153 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="J22" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="K21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
